--- a/Code/Results/Cases/Case_2_101/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_101/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.039689195119997</v>
+        <v>1.063527324149735</v>
       </c>
       <c r="D2">
-        <v>1.05241652874084</v>
+        <v>1.064049914034681</v>
       </c>
       <c r="E2">
-        <v>1.026442191702484</v>
+        <v>1.066708009121908</v>
       </c>
       <c r="F2">
-        <v>1.04080544187559</v>
+        <v>1.077131455613958</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066962710107842</v>
+        <v>1.056563993208971</v>
       </c>
       <c r="J2">
-        <v>1.060744315816634</v>
+        <v>1.06849224215791</v>
       </c>
       <c r="K2">
-        <v>1.06319090315393</v>
+        <v>1.066766899537356</v>
       </c>
       <c r="L2">
-        <v>1.03754503742717</v>
+        <v>1.069417832507876</v>
       </c>
       <c r="M2">
-        <v>1.05172412192846</v>
+        <v>1.07981356210913</v>
       </c>
       <c r="N2">
-        <v>1.062250694414167</v>
+        <v>1.070009623699548</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.046686626393267</v>
+        <v>1.064858264963401</v>
       </c>
       <c r="D3">
-        <v>1.05804267705143</v>
+        <v>1.065119161220602</v>
       </c>
       <c r="E3">
-        <v>1.033608469023646</v>
+        <v>1.068098679100953</v>
       </c>
       <c r="F3">
-        <v>1.048141705247665</v>
+        <v>1.078573836072702</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070179845488198</v>
+        <v>1.057076508683191</v>
       </c>
       <c r="J3">
-        <v>1.065980707782159</v>
+        <v>1.069476230069396</v>
       </c>
       <c r="K3">
-        <v>1.067983087049202</v>
+        <v>1.067650639466135</v>
       </c>
       <c r="L3">
-        <v>1.043828650641455</v>
+        <v>1.070622713873603</v>
       </c>
       <c r="M3">
-        <v>1.058193542483265</v>
+        <v>1.081072052812486</v>
       </c>
       <c r="N3">
-        <v>1.067494522656906</v>
+        <v>1.070995008986733</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.051077497283556</v>
+        <v>1.065718078392788</v>
       </c>
       <c r="D4">
-        <v>1.061574395363323</v>
+        <v>1.065809762252316</v>
       </c>
       <c r="E4">
-        <v>1.038092943294726</v>
+        <v>1.068995599186635</v>
       </c>
       <c r="F4">
-        <v>1.052738911909572</v>
+        <v>1.079504923101938</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072185373219089</v>
+        <v>1.057406084746772</v>
       </c>
       <c r="J4">
-        <v>1.069259112381314</v>
+        <v>1.070111042571849</v>
       </c>
       <c r="K4">
-        <v>1.070982406321047</v>
+        <v>1.068220607169627</v>
       </c>
       <c r="L4">
-        <v>1.047752370768264</v>
+        <v>1.071398888655726</v>
       </c>
       <c r="M4">
-        <v>1.06223991355605</v>
+        <v>1.081883628009349</v>
       </c>
       <c r="N4">
-        <v>1.07077758296663</v>
+        <v>1.071630722995753</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.052892459488049</v>
+        <v>1.06607921631991</v>
       </c>
       <c r="D5">
-        <v>1.0630344821075</v>
+        <v>1.066099790442395</v>
       </c>
       <c r="E5">
-        <v>1.039943760583732</v>
+        <v>1.0693719709756</v>
       </c>
       <c r="F5">
-        <v>1.054637755881979</v>
+        <v>1.079895827258425</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073011161362272</v>
+        <v>1.057544149278084</v>
       </c>
       <c r="J5">
-        <v>1.070612436608149</v>
+        <v>1.070377469251964</v>
       </c>
       <c r="K5">
-        <v>1.072220276824547</v>
+        <v>1.068459777862467</v>
       </c>
       <c r="L5">
-        <v>1.049369735146135</v>
+        <v>1.071724372127188</v>
       </c>
       <c r="M5">
-        <v>1.063909405037539</v>
+        <v>1.082224163580764</v>
       </c>
       <c r="N5">
-        <v>1.072132829069095</v>
+        <v>1.071897528032314</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.053195434247237</v>
+        <v>1.066139833932178</v>
       </c>
       <c r="D6">
-        <v>1.063278230089598</v>
+        <v>1.066148469957565</v>
       </c>
       <c r="E6">
-        <v>1.040252557375758</v>
+        <v>1.069435125069555</v>
       </c>
       <c r="F6">
-        <v>1.054954653159171</v>
+        <v>1.079961431268609</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073148823008793</v>
+        <v>1.057567302314606</v>
       </c>
       <c r="J6">
-        <v>1.070838242804744</v>
+        <v>1.070422177302894</v>
       </c>
       <c r="K6">
-        <v>1.072426804289327</v>
+        <v>1.068499909775769</v>
       </c>
       <c r="L6">
-        <v>1.049639462885684</v>
+        <v>1.071778974382398</v>
       </c>
       <c r="M6">
-        <v>1.064187917863349</v>
+        <v>1.082281303087862</v>
       </c>
       <c r="N6">
-        <v>1.072358955936389</v>
+        <v>1.071942299573804</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.051101868253469</v>
+        <v>1.065722905215224</v>
       </c>
       <c r="D7">
-        <v>1.061594000206304</v>
+        <v>1.065813638798485</v>
       </c>
       <c r="E7">
-        <v>1.038117806786365</v>
+        <v>1.069000630997725</v>
       </c>
       <c r="F7">
-        <v>1.052764414671795</v>
+        <v>1.079510148433581</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072196474424117</v>
+        <v>1.057407931490626</v>
       </c>
       <c r="J7">
-        <v>1.069277291721024</v>
+        <v>1.070114604334536</v>
       </c>
       <c r="K7">
-        <v>1.070999035756529</v>
+        <v>1.068223804718476</v>
       </c>
       <c r="L7">
-        <v>1.047774106109753</v>
+        <v>1.071403240994458</v>
       </c>
       <c r="M7">
-        <v>1.062262343221946</v>
+        <v>1.08188818080864</v>
       </c>
       <c r="N7">
-        <v>1.070795788123088</v>
+        <v>1.071634289816552</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.042083511239918</v>
+        <v>1.063977414238139</v>
       </c>
       <c r="D8">
-        <v>1.054341312168048</v>
+        <v>1.064411537432564</v>
       </c>
       <c r="E8">
-        <v>1.028896971021849</v>
+        <v>1.067178606322461</v>
       </c>
       <c r="F8">
-        <v>1.043317087202223</v>
+        <v>1.077619381886152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068066295759074</v>
+        <v>1.056737627613449</v>
       </c>
       <c r="J8">
-        <v>1.062537609065102</v>
+        <v>1.068825180438175</v>
       </c>
       <c r="K8">
-        <v>1.064832267380575</v>
+        <v>1.067065953562493</v>
       </c>
       <c r="L8">
-        <v>1.039699239734899</v>
+        <v>1.06982575042379</v>
       </c>
       <c r="M8">
-        <v>1.05394060762725</v>
+        <v>1.080239449856142</v>
       </c>
       <c r="N8">
-        <v>1.064046534344741</v>
+        <v>1.070343034790359</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.025052166443198</v>
+        <v>1.06089068073117</v>
       </c>
       <c r="D9">
-        <v>1.040658483465505</v>
+        <v>1.061930905944026</v>
       </c>
       <c r="E9">
-        <v>1.011376006266028</v>
+        <v>1.063945046866503</v>
       </c>
       <c r="F9">
-        <v>1.02541917589976</v>
+        <v>1.074270131925258</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060159972000366</v>
+        <v>1.055540591619194</v>
       </c>
       <c r="J9">
-        <v>1.049750260169471</v>
+        <v>1.066538332586749</v>
       </c>
       <c r="K9">
-        <v>1.053124633467979</v>
+        <v>1.065011151077318</v>
       </c>
       <c r="L9">
-        <v>1.024287173140928</v>
+        <v>1.067019080378195</v>
       </c>
       <c r="M9">
-        <v>1.038112880237645</v>
+        <v>1.077312721601917</v>
       </c>
       <c r="N9">
-        <v>1.05124102594695</v>
+        <v>1.068052939352679</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.012787335934938</v>
+        <v>1.058825102880752</v>
       </c>
       <c r="D10">
-        <v>1.030819671429982</v>
+        <v>1.060270183693466</v>
       </c>
       <c r="E10">
-        <v>0.9986741590045057</v>
+        <v>1.061773327498032</v>
       </c>
       <c r="F10">
-        <v>1.012482933348191</v>
+        <v>1.072024983441084</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054395274520877</v>
+        <v>1.05473171007029</v>
       </c>
       <c r="J10">
-        <v>1.040502636930902</v>
+        <v>1.065003566628512</v>
       </c>
       <c r="K10">
-        <v>1.044653904259549</v>
+        <v>1.063631251442606</v>
       </c>
       <c r="L10">
-        <v>1.01306739325367</v>
+        <v>1.065129299650185</v>
       </c>
       <c r="M10">
-        <v>1.026630403868466</v>
+        <v>1.075346621153195</v>
       </c>
       <c r="N10">
-        <v>1.041980270022665</v>
+        <v>1.066515993850741</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007222382660316</v>
+        <v>1.057928757888649</v>
       </c>
       <c r="D11">
-        <v>1.026360248634525</v>
+        <v>1.059549357174866</v>
       </c>
       <c r="E11">
-        <v>0.9928878177188873</v>
+        <v>1.060829016016138</v>
       </c>
       <c r="F11">
-        <v>1.006599685165736</v>
+        <v>1.071049762177138</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051763103036995</v>
+        <v>1.054378838697881</v>
       </c>
       <c r="J11">
-        <v>1.036297758397602</v>
+        <v>1.064336507957588</v>
       </c>
       <c r="K11">
-        <v>1.040801601431412</v>
+        <v>1.063031299957957</v>
       </c>
       <c r="L11">
-        <v>1.007945117416961</v>
+        <v>1.064306450626646</v>
       </c>
       <c r="M11">
-        <v>1.021398205152616</v>
+        <v>1.074491615185627</v>
       </c>
       <c r="N11">
-        <v>1.037769420079541</v>
+        <v>1.065847987879992</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.005113320567782</v>
+        <v>1.057595516935821</v>
       </c>
       <c r="D12">
-        <v>1.024671010379275</v>
+        <v>1.059281345774464</v>
       </c>
       <c r="E12">
-        <v>0.9906910769841833</v>
+        <v>1.060477652632511</v>
       </c>
       <c r="F12">
-        <v>1.004367700048719</v>
+        <v>1.070687051319472</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050763083423421</v>
+        <v>1.054247369241509</v>
       </c>
       <c r="J12">
-        <v>1.03470284102205</v>
+        <v>1.064088351837853</v>
       </c>
       <c r="K12">
-        <v>1.039340339572782</v>
+        <v>1.062808078509622</v>
       </c>
       <c r="L12">
-        <v>1.005998821079629</v>
+        <v>1.064000111649573</v>
       </c>
       <c r="M12">
-        <v>1.019411697498054</v>
+        <v>1.074173466111916</v>
       </c>
       <c r="N12">
-        <v>1.036172237738376</v>
+        <v>1.065599479350102</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.005567688592128</v>
+        <v>1.057667011882922</v>
       </c>
       <c r="D13">
-        <v>1.025034893265235</v>
+        <v>1.059338847180317</v>
       </c>
       <c r="E13">
-        <v>0.9911645098324023</v>
+        <v>1.060553048794892</v>
       </c>
       <c r="F13">
-        <v>1.004848657816612</v>
+        <v>1.070764875486798</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050978633837048</v>
+        <v>1.054275587924455</v>
       </c>
       <c r="J13">
-        <v>1.035046502319523</v>
+        <v>1.064141599498132</v>
       </c>
       <c r="K13">
-        <v>1.039655204796682</v>
+        <v>1.062855977221469</v>
       </c>
       <c r="L13">
-        <v>1.006418354095918</v>
+        <v>1.064065854081118</v>
       </c>
       <c r="M13">
-        <v>1.019839827164073</v>
+        <v>1.074241735754807</v>
       </c>
       <c r="N13">
-        <v>1.03651638707431</v>
+        <v>1.065652802628167</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.007048927408272</v>
+        <v>1.05790121822146</v>
       </c>
       <c r="D14">
-        <v>1.026221303137195</v>
+        <v>1.059527208693299</v>
       </c>
       <c r="E14">
-        <v>0.9927072299430345</v>
+        <v>1.060799984599871</v>
       </c>
       <c r="F14">
-        <v>1.006416168352996</v>
+        <v>1.071019790041337</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051680908106176</v>
+        <v>1.054367979517941</v>
       </c>
       <c r="J14">
-        <v>1.036166614231287</v>
+        <v>1.064316003099006</v>
       </c>
       <c r="K14">
-        <v>1.04068144867527</v>
+        <v>1.063012856038273</v>
       </c>
       <c r="L14">
-        <v>1.007785151623643</v>
+        <v>1.064281142817139</v>
       </c>
       <c r="M14">
-        <v>1.021234902566158</v>
+        <v>1.074465328403496</v>
       </c>
       <c r="N14">
-        <v>1.037638089673467</v>
+        <v>1.065827453902158</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.007955880624956</v>
+        <v>1.058045480691257</v>
       </c>
       <c r="D15">
-        <v>1.026947848488222</v>
+        <v>1.059643229245521</v>
       </c>
       <c r="E15">
-        <v>0.9936513220567783</v>
+        <v>1.060952049504096</v>
       </c>
       <c r="F15">
-        <v>1.007375636261623</v>
+        <v>1.071176788668452</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052110584979397</v>
+        <v>1.054424852270094</v>
       </c>
       <c r="J15">
-        <v>1.036852280563704</v>
+        <v>1.064423408269646</v>
       </c>
       <c r="K15">
-        <v>1.041309645199408</v>
+        <v>1.063109464702204</v>
       </c>
       <c r="L15">
-        <v>1.00862136690628</v>
+        <v>1.064413696730278</v>
       </c>
       <c r="M15">
-        <v>1.022088624266207</v>
+        <v>1.074603016465204</v>
       </c>
       <c r="N15">
-        <v>1.038324729730724</v>
+        <v>1.06593501160046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.013150995344802</v>
+        <v>1.05888454890371</v>
       </c>
       <c r="D16">
-        <v>1.031111195003968</v>
+        <v>1.06031798580918</v>
       </c>
       <c r="E16">
-        <v>0.9990517836726017</v>
+        <v>1.06183591427622</v>
       </c>
       <c r="F16">
-        <v>1.012867091078955</v>
+        <v>1.072089640320868</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054566942805503</v>
+        <v>1.054755073463696</v>
       </c>
       <c r="J16">
-        <v>1.040777235963128</v>
+        <v>1.065047784040314</v>
       </c>
       <c r="K16">
-        <v>1.044905466413984</v>
+        <v>1.063671016264946</v>
       </c>
       <c r="L16">
-        <v>1.013401451433215</v>
+        <v>1.065183812396235</v>
       </c>
       <c r="M16">
-        <v>1.026971841447809</v>
+        <v>1.075403286861587</v>
       </c>
       <c r="N16">
-        <v>1.042255259017013</v>
+        <v>1.06656027405634</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.016339174576099</v>
+        <v>1.059410350497145</v>
       </c>
       <c r="D17">
-        <v>1.033667514435851</v>
+        <v>1.060740777657605</v>
       </c>
       <c r="E17">
-        <v>1.002359760980735</v>
+        <v>1.062389275495818</v>
       </c>
       <c r="F17">
-        <v>1.016233414339983</v>
+        <v>1.072661421853172</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056070087902409</v>
+        <v>1.054961508397065</v>
       </c>
       <c r="J17">
-        <v>1.043183625811119</v>
+        <v>1.065438766294596</v>
       </c>
       <c r="K17">
-        <v>1.047109904056541</v>
+        <v>1.064022604181184</v>
       </c>
       <c r="L17">
-        <v>1.016326541161124</v>
+        <v>1.065665656699692</v>
       </c>
       <c r="M17">
-        <v>1.029962676434912</v>
+        <v>1.075904285209295</v>
       </c>
       <c r="N17">
-        <v>1.044665066214605</v>
+        <v>1.066951811550269</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.018174541684167</v>
+        <v>1.059716855379329</v>
       </c>
       <c r="D18">
-        <v>1.035139571890205</v>
+        <v>1.06098721913711</v>
       </c>
       <c r="E18">
-        <v>1.004261948286565</v>
+        <v>1.062711662119767</v>
       </c>
       <c r="F18">
-        <v>1.018170071740408</v>
+        <v>1.072994638121285</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056933862892366</v>
+        <v>1.055081665825936</v>
       </c>
       <c r="J18">
-        <v>1.044568093505354</v>
+        <v>1.065666579317218</v>
       </c>
       <c r="K18">
-        <v>1.048378117532069</v>
+        <v>1.064227443837236</v>
       </c>
       <c r="L18">
-        <v>1.018007518251246</v>
+        <v>1.065946268952531</v>
       </c>
       <c r="M18">
-        <v>1.031682367409845</v>
+        <v>1.076196155515746</v>
       </c>
       <c r="N18">
-        <v>1.046051500011767</v>
+        <v>1.067179948093514</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.018796349262226</v>
+        <v>1.059821334254625</v>
       </c>
       <c r="D19">
-        <v>1.035638364072319</v>
+        <v>1.061071221346886</v>
       </c>
       <c r="E19">
-        <v>1.004906038439637</v>
+        <v>1.062821523591012</v>
       </c>
       <c r="F19">
-        <v>1.018825987889972</v>
+        <v>1.073108206681665</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05722623841826</v>
+        <v>1.055122593672476</v>
       </c>
       <c r="J19">
-        <v>1.045036996635956</v>
+        <v>1.065744217090222</v>
       </c>
       <c r="K19">
-        <v>1.048807634978826</v>
+        <v>1.064297249059193</v>
       </c>
       <c r="L19">
-        <v>1.018576529316924</v>
+        <v>1.066041876281284</v>
       </c>
       <c r="M19">
-        <v>1.032264639755714</v>
+        <v>1.076295616085548</v>
       </c>
       <c r="N19">
-        <v>1.046521069038598</v>
+        <v>1.067257696121061</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.015999646567329</v>
+        <v>1.059353956288161</v>
       </c>
       <c r="D20">
-        <v>1.033395230480003</v>
+        <v>1.060695433289559</v>
       </c>
       <c r="E20">
-        <v>1.002007699968741</v>
+        <v>1.06232994442594</v>
       </c>
       <c r="F20">
-        <v>1.015875047657687</v>
+        <v>1.072600105620505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055910170417922</v>
+        <v>1.054939386034614</v>
       </c>
       <c r="J20">
-        <v>1.042927442258422</v>
+        <v>1.06539684250022</v>
       </c>
       <c r="K20">
-        <v>1.046875226879922</v>
+        <v>1.063984906536701</v>
       </c>
       <c r="L20">
-        <v>1.016015338021881</v>
+        <v>1.065614004893716</v>
       </c>
       <c r="M20">
-        <v>1.029644381326082</v>
+        <v>1.075850569473287</v>
       </c>
       <c r="N20">
-        <v>1.044408518851879</v>
+        <v>1.066909828219296</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.006613931847354</v>
+        <v>1.057832258594201</v>
       </c>
       <c r="D21">
-        <v>1.025872865951339</v>
+        <v>1.059471748263941</v>
       </c>
       <c r="E21">
-        <v>0.9922542854649868</v>
+        <v>1.060727284929435</v>
       </c>
       <c r="F21">
-        <v>1.005955902418072</v>
+        <v>1.070944737128496</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051474738224361</v>
+        <v>1.054340783493772</v>
       </c>
       <c r="J21">
-        <v>1.035837706556385</v>
+        <v>1.064264656146633</v>
       </c>
       <c r="K21">
-        <v>1.040380106148511</v>
+        <v>1.062966669469426</v>
       </c>
       <c r="L21">
-        <v>1.007383903835876</v>
+        <v>1.064217764957177</v>
       </c>
       <c r="M21">
-        <v>1.02082531016448</v>
+        <v>1.07439950153171</v>
       </c>
       <c r="N21">
-        <v>1.03730871491194</v>
+        <v>1.065776034031223</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.00046752095085</v>
+        <v>1.056873775929841</v>
       </c>
       <c r="D22">
-        <v>1.020951685828087</v>
+        <v>1.058700836788055</v>
       </c>
       <c r="E22">
-        <v>0.9858447939448448</v>
+        <v>1.059716128551388</v>
       </c>
       <c r="F22">
-        <v>0.999446595623619</v>
+        <v>1.069901214991442</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048555770431228</v>
+        <v>1.053962117736436</v>
       </c>
       <c r="J22">
-        <v>1.031187207617423</v>
+        <v>1.063550599282909</v>
       </c>
       <c r="K22">
-        <v>1.036119206768685</v>
+        <v>1.062324304114241</v>
       </c>
       <c r="L22">
-        <v>1.001701982193518</v>
+        <v>1.063335859957139</v>
       </c>
       <c r="M22">
-        <v>1.015029023540186</v>
+        <v>1.073483902082545</v>
       </c>
       <c r="N22">
-        <v>1.032651611731065</v>
+        <v>1.06506096312485</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.00375051031857</v>
+        <v>1.057382052360123</v>
       </c>
       <c r="D23">
-        <v>1.023579730134016</v>
+        <v>1.059109658625871</v>
       </c>
       <c r="E23">
-        <v>0.9892705052343322</v>
+        <v>1.060252497445659</v>
       </c>
       <c r="F23">
-        <v>1.002924781059836</v>
+        <v>1.070454667920556</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050116214635328</v>
+        <v>1.054163074911904</v>
       </c>
       <c r="J23">
-        <v>1.033671889868263</v>
+        <v>1.063929345491641</v>
       </c>
       <c r="K23">
-        <v>1.038395764643053</v>
+        <v>1.062665040599262</v>
       </c>
       <c r="L23">
-        <v>1.004739736465019</v>
+        <v>1.063803760479056</v>
       </c>
       <c r="M23">
-        <v>1.018127045486988</v>
+        <v>1.073969590675853</v>
       </c>
       <c r="N23">
-        <v>1.035139822515698</v>
+        <v>1.065440247196641</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.016153139299391</v>
+        <v>1.05937943897875</v>
       </c>
       <c r="D24">
-        <v>1.033518322382578</v>
+        <v>1.060715922969707</v>
       </c>
       <c r="E24">
-        <v>1.00216686522384</v>
+        <v>1.062356754754401</v>
       </c>
       <c r="F24">
-        <v>1.016037060825257</v>
+        <v>1.072627812694845</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055982470231243</v>
+        <v>1.054949382958078</v>
       </c>
       <c r="J24">
-        <v>1.043043259508464</v>
+        <v>1.065415786800353</v>
       </c>
       <c r="K24">
-        <v>1.046981321581398</v>
+        <v>1.064001941207199</v>
       </c>
       <c r="L24">
-        <v>1.016156034838023</v>
+        <v>1.065637345478093</v>
       </c>
       <c r="M24">
-        <v>1.029788281570993</v>
+        <v>1.075874842393715</v>
       </c>
       <c r="N24">
-        <v>1.044524500575701</v>
+        <v>1.066928799422508</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02960405572463</v>
+        <v>1.061690013533042</v>
       </c>
       <c r="D25">
-        <v>1.044313328052473</v>
+        <v>1.062573416229359</v>
       </c>
       <c r="E25">
-        <v>1.016072211747615</v>
+        <v>1.064783777364023</v>
       </c>
       <c r="F25">
-        <v>1.030210020557625</v>
+        <v>1.075138122321007</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062285239261876</v>
+        <v>1.055851954236253</v>
       </c>
       <c r="J25">
-        <v>1.05317460961594</v>
+        <v>1.067131312996513</v>
       </c>
       <c r="K25">
-        <v>1.056260589119777</v>
+        <v>1.065544115042375</v>
       </c>
       <c r="L25">
-        <v>1.028426047429201</v>
+        <v>1.067747920701877</v>
       </c>
       <c r="M25">
-        <v>1.042356791251574</v>
+        <v>1.07807194706998</v>
       </c>
       <c r="N25">
-        <v>1.054670238362411</v>
+        <v>1.068646761862641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_101/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_101/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.063527324149735</v>
+        <v>1.039689195119999</v>
       </c>
       <c r="D2">
-        <v>1.064049914034681</v>
+        <v>1.052416528740842</v>
       </c>
       <c r="E2">
-        <v>1.066708009121908</v>
+        <v>1.026442191702486</v>
       </c>
       <c r="F2">
-        <v>1.077131455613958</v>
+        <v>1.040805441875592</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056563993208971</v>
+        <v>1.066962710107843</v>
       </c>
       <c r="J2">
-        <v>1.06849224215791</v>
+        <v>1.060744315816636</v>
       </c>
       <c r="K2">
-        <v>1.066766899537356</v>
+        <v>1.063190903153932</v>
       </c>
       <c r="L2">
-        <v>1.069417832507876</v>
+        <v>1.037545037427172</v>
       </c>
       <c r="M2">
-        <v>1.07981356210913</v>
+        <v>1.051724121928462</v>
       </c>
       <c r="N2">
-        <v>1.070009623699548</v>
+        <v>1.062250694414169</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.064858264963401</v>
+        <v>1.046686626393269</v>
       </c>
       <c r="D3">
-        <v>1.065119161220602</v>
+        <v>1.058042677051432</v>
       </c>
       <c r="E3">
-        <v>1.068098679100953</v>
+        <v>1.033608469023647</v>
       </c>
       <c r="F3">
-        <v>1.078573836072702</v>
+        <v>1.048141705247666</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057076508683191</v>
+        <v>1.0701798454882</v>
       </c>
       <c r="J3">
-        <v>1.069476230069396</v>
+        <v>1.065980707782161</v>
       </c>
       <c r="K3">
-        <v>1.067650639466135</v>
+        <v>1.067983087049204</v>
       </c>
       <c r="L3">
-        <v>1.070622713873603</v>
+        <v>1.043828650641456</v>
       </c>
       <c r="M3">
-        <v>1.081072052812486</v>
+        <v>1.058193542483266</v>
       </c>
       <c r="N3">
-        <v>1.070995008986733</v>
+        <v>1.067494522656908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065718078392788</v>
+        <v>1.051077497283557</v>
       </c>
       <c r="D4">
-        <v>1.065809762252316</v>
+        <v>1.061574395363323</v>
       </c>
       <c r="E4">
-        <v>1.068995599186635</v>
+        <v>1.038092943294726</v>
       </c>
       <c r="F4">
-        <v>1.079504923101938</v>
+        <v>1.052738911909572</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057406084746772</v>
+        <v>1.072185373219089</v>
       </c>
       <c r="J4">
-        <v>1.070111042571849</v>
+        <v>1.069259112381314</v>
       </c>
       <c r="K4">
-        <v>1.068220607169627</v>
+        <v>1.070982406321048</v>
       </c>
       <c r="L4">
-        <v>1.071398888655726</v>
+        <v>1.047752370768264</v>
       </c>
       <c r="M4">
-        <v>1.081883628009349</v>
+        <v>1.06223991355605</v>
       </c>
       <c r="N4">
-        <v>1.071630722995753</v>
+        <v>1.07077758296663</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06607921631991</v>
+        <v>1.052892459488052</v>
       </c>
       <c r="D5">
-        <v>1.066099790442395</v>
+        <v>1.063034482107502</v>
       </c>
       <c r="E5">
-        <v>1.0693719709756</v>
+        <v>1.039943760583733</v>
       </c>
       <c r="F5">
-        <v>1.079895827258425</v>
+        <v>1.054637755881981</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057544149278084</v>
+        <v>1.073011161362274</v>
       </c>
       <c r="J5">
-        <v>1.070377469251964</v>
+        <v>1.070612436608151</v>
       </c>
       <c r="K5">
-        <v>1.068459777862467</v>
+        <v>1.07222027682455</v>
       </c>
       <c r="L5">
-        <v>1.071724372127188</v>
+        <v>1.049369735146137</v>
       </c>
       <c r="M5">
-        <v>1.082224163580764</v>
+        <v>1.063909405037541</v>
       </c>
       <c r="N5">
-        <v>1.071897528032314</v>
+        <v>1.072132829069098</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.066139833932178</v>
+        <v>1.053195434247238</v>
       </c>
       <c r="D6">
-        <v>1.066148469957565</v>
+        <v>1.063278230089599</v>
       </c>
       <c r="E6">
-        <v>1.069435125069555</v>
+        <v>1.040252557375758</v>
       </c>
       <c r="F6">
-        <v>1.079961431268609</v>
+        <v>1.054954653159171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057567302314606</v>
+        <v>1.073148823008794</v>
       </c>
       <c r="J6">
-        <v>1.070422177302894</v>
+        <v>1.070838242804745</v>
       </c>
       <c r="K6">
-        <v>1.068499909775769</v>
+        <v>1.072426804289329</v>
       </c>
       <c r="L6">
-        <v>1.071778974382398</v>
+        <v>1.049639462885684</v>
       </c>
       <c r="M6">
-        <v>1.082281303087862</v>
+        <v>1.064187917863349</v>
       </c>
       <c r="N6">
-        <v>1.071942299573804</v>
+        <v>1.072358955936391</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065722905215224</v>
+        <v>1.051101868253467</v>
       </c>
       <c r="D7">
-        <v>1.065813638798485</v>
+        <v>1.061594000206303</v>
       </c>
       <c r="E7">
-        <v>1.069000630997725</v>
+        <v>1.038117806786365</v>
       </c>
       <c r="F7">
-        <v>1.079510148433581</v>
+        <v>1.052764414671794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057407931490626</v>
+        <v>1.072196474424116</v>
       </c>
       <c r="J7">
-        <v>1.070114604334536</v>
+        <v>1.069277291721023</v>
       </c>
       <c r="K7">
-        <v>1.068223804718476</v>
+        <v>1.070999035756528</v>
       </c>
       <c r="L7">
-        <v>1.071403240994458</v>
+        <v>1.047774106109753</v>
       </c>
       <c r="M7">
-        <v>1.08188818080864</v>
+        <v>1.062262343221946</v>
       </c>
       <c r="N7">
-        <v>1.071634289816552</v>
+        <v>1.070795788123087</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.063977414238139</v>
+        <v>1.042083511239919</v>
       </c>
       <c r="D8">
-        <v>1.064411537432564</v>
+        <v>1.054341312168049</v>
       </c>
       <c r="E8">
-        <v>1.067178606322461</v>
+        <v>1.02889697102185</v>
       </c>
       <c r="F8">
-        <v>1.077619381886152</v>
+        <v>1.043317087202224</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056737627613449</v>
+        <v>1.068066295759075</v>
       </c>
       <c r="J8">
-        <v>1.068825180438175</v>
+        <v>1.062537609065103</v>
       </c>
       <c r="K8">
-        <v>1.067065953562493</v>
+        <v>1.064832267380576</v>
       </c>
       <c r="L8">
-        <v>1.06982575042379</v>
+        <v>1.039699239734901</v>
       </c>
       <c r="M8">
-        <v>1.080239449856142</v>
+        <v>1.053940607627251</v>
       </c>
       <c r="N8">
-        <v>1.070343034790359</v>
+        <v>1.064046534344743</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06089068073117</v>
+        <v>1.025052166443199</v>
       </c>
       <c r="D9">
-        <v>1.061930905944026</v>
+        <v>1.040658483465505</v>
       </c>
       <c r="E9">
-        <v>1.063945046866503</v>
+        <v>1.011376006266029</v>
       </c>
       <c r="F9">
-        <v>1.074270131925258</v>
+        <v>1.025419175899762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055540591619194</v>
+        <v>1.060159972000366</v>
       </c>
       <c r="J9">
-        <v>1.066538332586749</v>
+        <v>1.049750260169472</v>
       </c>
       <c r="K9">
-        <v>1.065011151077318</v>
+        <v>1.05312463346798</v>
       </c>
       <c r="L9">
-        <v>1.067019080378195</v>
+        <v>1.02428717314093</v>
       </c>
       <c r="M9">
-        <v>1.077312721601917</v>
+        <v>1.038112880237647</v>
       </c>
       <c r="N9">
-        <v>1.068052939352679</v>
+        <v>1.051241025946951</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.058825102880752</v>
+        <v>1.012787335934935</v>
       </c>
       <c r="D10">
-        <v>1.060270183693466</v>
+        <v>1.03081967142998</v>
       </c>
       <c r="E10">
-        <v>1.061773327498032</v>
+        <v>0.9986741590045037</v>
       </c>
       <c r="F10">
-        <v>1.072024983441084</v>
+        <v>1.012482933348189</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05473171007029</v>
+        <v>1.054395274520875</v>
       </c>
       <c r="J10">
-        <v>1.065003566628512</v>
+        <v>1.040502636930899</v>
       </c>
       <c r="K10">
-        <v>1.063631251442606</v>
+        <v>1.044653904259547</v>
       </c>
       <c r="L10">
-        <v>1.065129299650185</v>
+        <v>1.013067393253669</v>
       </c>
       <c r="M10">
-        <v>1.075346621153195</v>
+        <v>1.026630403868464</v>
       </c>
       <c r="N10">
-        <v>1.066515993850741</v>
+        <v>1.041980270022662</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.057928757888649</v>
+        <v>1.007222382660315</v>
       </c>
       <c r="D11">
-        <v>1.059549357174866</v>
+        <v>1.026360248634524</v>
       </c>
       <c r="E11">
-        <v>1.060829016016138</v>
+        <v>0.9928878177188865</v>
       </c>
       <c r="F11">
-        <v>1.071049762177138</v>
+        <v>1.006599685165735</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054378838697881</v>
+        <v>1.051763103036994</v>
       </c>
       <c r="J11">
-        <v>1.064336507957588</v>
+        <v>1.036297758397601</v>
       </c>
       <c r="K11">
-        <v>1.063031299957957</v>
+        <v>1.040801601431411</v>
       </c>
       <c r="L11">
-        <v>1.064306450626646</v>
+        <v>1.00794511741696</v>
       </c>
       <c r="M11">
-        <v>1.074491615185627</v>
+        <v>1.021398205152615</v>
       </c>
       <c r="N11">
-        <v>1.065847987879992</v>
+        <v>1.037769420079539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.057595516935821</v>
+        <v>1.005113320567783</v>
       </c>
       <c r="D12">
-        <v>1.059281345774464</v>
+        <v>1.024671010379276</v>
       </c>
       <c r="E12">
-        <v>1.060477652632511</v>
+        <v>0.9906910769841837</v>
       </c>
       <c r="F12">
-        <v>1.070687051319472</v>
+        <v>1.004367700048719</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054247369241509</v>
+        <v>1.050763083423421</v>
       </c>
       <c r="J12">
-        <v>1.064088351837853</v>
+        <v>1.034702841022051</v>
       </c>
       <c r="K12">
-        <v>1.062808078509622</v>
+        <v>1.039340339572782</v>
       </c>
       <c r="L12">
-        <v>1.064000111649573</v>
+        <v>1.00599882107963</v>
       </c>
       <c r="M12">
-        <v>1.074173466111916</v>
+        <v>1.019411697498054</v>
       </c>
       <c r="N12">
-        <v>1.065599479350102</v>
+        <v>1.036172237738377</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.057667011882922</v>
+        <v>1.005567688592127</v>
       </c>
       <c r="D13">
-        <v>1.059338847180317</v>
+        <v>1.025034893265235</v>
       </c>
       <c r="E13">
-        <v>1.060553048794892</v>
+        <v>0.9911645098324012</v>
       </c>
       <c r="F13">
-        <v>1.070764875486798</v>
+        <v>1.004848657816611</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054275587924455</v>
+        <v>1.050978633837047</v>
       </c>
       <c r="J13">
-        <v>1.064141599498132</v>
+        <v>1.035046502319523</v>
       </c>
       <c r="K13">
-        <v>1.062855977221469</v>
+        <v>1.039655204796682</v>
       </c>
       <c r="L13">
-        <v>1.064065854081118</v>
+        <v>1.006418354095916</v>
       </c>
       <c r="M13">
-        <v>1.074241735754807</v>
+        <v>1.019839827164072</v>
       </c>
       <c r="N13">
-        <v>1.065652802628167</v>
+        <v>1.03651638707431</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.05790121822146</v>
+        <v>1.007048927408275</v>
       </c>
       <c r="D14">
-        <v>1.059527208693299</v>
+        <v>1.026221303137197</v>
       </c>
       <c r="E14">
-        <v>1.060799984599871</v>
+        <v>0.992707229943036</v>
       </c>
       <c r="F14">
-        <v>1.071019790041337</v>
+        <v>1.006416168352998</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054367979517941</v>
+        <v>1.051680908106178</v>
       </c>
       <c r="J14">
-        <v>1.064316003099006</v>
+        <v>1.036166614231289</v>
       </c>
       <c r="K14">
-        <v>1.063012856038273</v>
+        <v>1.040681448675272</v>
       </c>
       <c r="L14">
-        <v>1.064281142817139</v>
+        <v>1.007785151623645</v>
       </c>
       <c r="M14">
-        <v>1.074465328403496</v>
+        <v>1.02123490256616</v>
       </c>
       <c r="N14">
-        <v>1.065827453902158</v>
+        <v>1.037638089673469</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.058045480691257</v>
+        <v>1.007955880624959</v>
       </c>
       <c r="D15">
-        <v>1.059643229245521</v>
+        <v>1.026947848488225</v>
       </c>
       <c r="E15">
-        <v>1.060952049504096</v>
+        <v>0.9936513220567799</v>
       </c>
       <c r="F15">
-        <v>1.071176788668452</v>
+        <v>1.007375636261625</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054424852270094</v>
+        <v>1.052110584979399</v>
       </c>
       <c r="J15">
-        <v>1.064423408269646</v>
+        <v>1.036852280563707</v>
       </c>
       <c r="K15">
-        <v>1.063109464702204</v>
+        <v>1.041309645199411</v>
       </c>
       <c r="L15">
-        <v>1.064413696730278</v>
+        <v>1.008621366906282</v>
       </c>
       <c r="M15">
-        <v>1.074603016465204</v>
+        <v>1.022088624266208</v>
       </c>
       <c r="N15">
-        <v>1.06593501160046</v>
+        <v>1.038324729730727</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05888454890371</v>
+        <v>1.013150995344801</v>
       </c>
       <c r="D16">
-        <v>1.06031798580918</v>
+        <v>1.031111195003968</v>
       </c>
       <c r="E16">
-        <v>1.06183591427622</v>
+        <v>0.9990517836726009</v>
       </c>
       <c r="F16">
-        <v>1.072089640320868</v>
+        <v>1.012867091078954</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054755073463696</v>
+        <v>1.054566942805503</v>
       </c>
       <c r="J16">
-        <v>1.065047784040314</v>
+        <v>1.040777235963128</v>
       </c>
       <c r="K16">
-        <v>1.063671016264946</v>
+        <v>1.044905466413983</v>
       </c>
       <c r="L16">
-        <v>1.065183812396235</v>
+        <v>1.013401451433214</v>
       </c>
       <c r="M16">
-        <v>1.075403286861587</v>
+        <v>1.026971841447808</v>
       </c>
       <c r="N16">
-        <v>1.06656027405634</v>
+        <v>1.042255259017013</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.059410350497145</v>
+        <v>1.016339174576098</v>
       </c>
       <c r="D17">
-        <v>1.060740777657605</v>
+        <v>1.03366751443585</v>
       </c>
       <c r="E17">
-        <v>1.062389275495818</v>
+        <v>1.002359760980735</v>
       </c>
       <c r="F17">
-        <v>1.072661421853172</v>
+        <v>1.016233414339983</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054961508397065</v>
+        <v>1.056070087902409</v>
       </c>
       <c r="J17">
-        <v>1.065438766294596</v>
+        <v>1.043183625811118</v>
       </c>
       <c r="K17">
-        <v>1.064022604181184</v>
+        <v>1.047109904056539</v>
       </c>
       <c r="L17">
-        <v>1.065665656699692</v>
+        <v>1.016326541161124</v>
       </c>
       <c r="M17">
-        <v>1.075904285209295</v>
+        <v>1.029962676434912</v>
       </c>
       <c r="N17">
-        <v>1.066951811550269</v>
+        <v>1.044665066214604</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059716855379329</v>
+        <v>1.018174541684168</v>
       </c>
       <c r="D18">
-        <v>1.06098721913711</v>
+        <v>1.035139571890206</v>
       </c>
       <c r="E18">
-        <v>1.062711662119767</v>
+        <v>1.004261948286566</v>
       </c>
       <c r="F18">
-        <v>1.072994638121285</v>
+        <v>1.018170071740409</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055081665825936</v>
+        <v>1.056933862892366</v>
       </c>
       <c r="J18">
-        <v>1.065666579317218</v>
+        <v>1.044568093505355</v>
       </c>
       <c r="K18">
-        <v>1.064227443837236</v>
+        <v>1.04837811753207</v>
       </c>
       <c r="L18">
-        <v>1.065946268952531</v>
+        <v>1.018007518251246</v>
       </c>
       <c r="M18">
-        <v>1.076196155515746</v>
+        <v>1.031682367409845</v>
       </c>
       <c r="N18">
-        <v>1.067179948093514</v>
+        <v>1.046051500011768</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059821334254625</v>
+        <v>1.018796349262226</v>
       </c>
       <c r="D19">
-        <v>1.061071221346886</v>
+        <v>1.035638364072319</v>
       </c>
       <c r="E19">
-        <v>1.062821523591012</v>
+        <v>1.004906038439638</v>
       </c>
       <c r="F19">
-        <v>1.073108206681665</v>
+        <v>1.018825987889973</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055122593672476</v>
+        <v>1.05722623841826</v>
       </c>
       <c r="J19">
-        <v>1.065744217090222</v>
+        <v>1.045036996635956</v>
       </c>
       <c r="K19">
-        <v>1.064297249059193</v>
+        <v>1.048807634978827</v>
       </c>
       <c r="L19">
-        <v>1.066041876281284</v>
+        <v>1.018576529316925</v>
       </c>
       <c r="M19">
-        <v>1.076295616085548</v>
+        <v>1.032264639755715</v>
       </c>
       <c r="N19">
-        <v>1.067257696121061</v>
+        <v>1.046521069038598</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.059353956288161</v>
+        <v>1.01599964656733</v>
       </c>
       <c r="D20">
-        <v>1.060695433289559</v>
+        <v>1.033395230480003</v>
       </c>
       <c r="E20">
-        <v>1.06232994442594</v>
+        <v>1.002007699968741</v>
       </c>
       <c r="F20">
-        <v>1.072600105620505</v>
+        <v>1.015875047657687</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054939386034614</v>
+        <v>1.055910170417922</v>
       </c>
       <c r="J20">
-        <v>1.06539684250022</v>
+        <v>1.042927442258422</v>
       </c>
       <c r="K20">
-        <v>1.063984906536701</v>
+        <v>1.046875226879922</v>
       </c>
       <c r="L20">
-        <v>1.065614004893716</v>
+        <v>1.016015338021882</v>
       </c>
       <c r="M20">
-        <v>1.075850569473287</v>
+        <v>1.029644381326082</v>
       </c>
       <c r="N20">
-        <v>1.066909828219296</v>
+        <v>1.044408518851879</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.057832258594201</v>
+        <v>1.006613931847354</v>
       </c>
       <c r="D21">
-        <v>1.059471748263941</v>
+        <v>1.025872865951339</v>
       </c>
       <c r="E21">
-        <v>1.060727284929435</v>
+        <v>0.9922542854649868</v>
       </c>
       <c r="F21">
-        <v>1.070944737128496</v>
+        <v>1.005955902418072</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054340783493772</v>
+        <v>1.051474738224361</v>
       </c>
       <c r="J21">
-        <v>1.064264656146633</v>
+        <v>1.035837706556385</v>
       </c>
       <c r="K21">
-        <v>1.062966669469426</v>
+        <v>1.040380106148511</v>
       </c>
       <c r="L21">
-        <v>1.064217764957177</v>
+        <v>1.007383903835876</v>
       </c>
       <c r="M21">
-        <v>1.07439950153171</v>
+        <v>1.02082531016448</v>
       </c>
       <c r="N21">
-        <v>1.065776034031223</v>
+        <v>1.03730871491194</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.056873775929841</v>
+        <v>1.000467520950848</v>
       </c>
       <c r="D22">
-        <v>1.058700836788055</v>
+        <v>1.020951685828086</v>
       </c>
       <c r="E22">
-        <v>1.059716128551388</v>
+        <v>0.9858447939448438</v>
       </c>
       <c r="F22">
-        <v>1.069901214991442</v>
+        <v>0.9994465956236175</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053962117736436</v>
+        <v>1.048555770431227</v>
       </c>
       <c r="J22">
-        <v>1.063550599282909</v>
+        <v>1.031187207617421</v>
       </c>
       <c r="K22">
-        <v>1.062324304114241</v>
+        <v>1.036119206768683</v>
       </c>
       <c r="L22">
-        <v>1.063335859957139</v>
+        <v>1.001701982193517</v>
       </c>
       <c r="M22">
-        <v>1.073483902082545</v>
+        <v>1.015029023540184</v>
       </c>
       <c r="N22">
-        <v>1.06506096312485</v>
+        <v>1.032651611731064</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.057382052360123</v>
+        <v>1.00375051031857</v>
       </c>
       <c r="D23">
-        <v>1.059109658625871</v>
+        <v>1.023579730134015</v>
       </c>
       <c r="E23">
-        <v>1.060252497445659</v>
+        <v>0.9892705052343318</v>
       </c>
       <c r="F23">
-        <v>1.070454667920556</v>
+        <v>1.002924781059835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054163074911904</v>
+        <v>1.050116214635328</v>
       </c>
       <c r="J23">
-        <v>1.063929345491641</v>
+        <v>1.033671889868262</v>
       </c>
       <c r="K23">
-        <v>1.062665040599262</v>
+        <v>1.038395764643053</v>
       </c>
       <c r="L23">
-        <v>1.063803760479056</v>
+        <v>1.004739736465019</v>
       </c>
       <c r="M23">
-        <v>1.073969590675853</v>
+        <v>1.018127045486988</v>
       </c>
       <c r="N23">
-        <v>1.065440247196641</v>
+        <v>1.035139822515698</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.05937943897875</v>
+        <v>1.016153139299389</v>
       </c>
       <c r="D24">
-        <v>1.060715922969707</v>
+        <v>1.033518322382577</v>
       </c>
       <c r="E24">
-        <v>1.062356754754401</v>
+        <v>1.00216686522384</v>
       </c>
       <c r="F24">
-        <v>1.072627812694845</v>
+        <v>1.016037060825256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054949382958078</v>
+        <v>1.055982470231242</v>
       </c>
       <c r="J24">
-        <v>1.065415786800353</v>
+        <v>1.043043259508463</v>
       </c>
       <c r="K24">
-        <v>1.064001941207199</v>
+        <v>1.046981321581397</v>
       </c>
       <c r="L24">
-        <v>1.065637345478093</v>
+        <v>1.016156034838022</v>
       </c>
       <c r="M24">
-        <v>1.075874842393715</v>
+        <v>1.029788281570991</v>
       </c>
       <c r="N24">
-        <v>1.066928799422508</v>
+        <v>1.0445245005757</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.061690013533042</v>
+        <v>1.029604055724629</v>
       </c>
       <c r="D25">
-        <v>1.062573416229359</v>
+        <v>1.044313328052472</v>
       </c>
       <c r="E25">
-        <v>1.064783777364023</v>
+        <v>1.016072211747614</v>
       </c>
       <c r="F25">
-        <v>1.075138122321007</v>
+        <v>1.030210020557624</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055851954236253</v>
+        <v>1.062285239261875</v>
       </c>
       <c r="J25">
-        <v>1.067131312996513</v>
+        <v>1.05317460961594</v>
       </c>
       <c r="K25">
-        <v>1.065544115042375</v>
+        <v>1.056260589119776</v>
       </c>
       <c r="L25">
-        <v>1.067747920701877</v>
+        <v>1.0284260474292</v>
       </c>
       <c r="M25">
-        <v>1.07807194706998</v>
+        <v>1.042356791251573</v>
       </c>
       <c r="N25">
-        <v>1.068646761862641</v>
+        <v>1.05467023836241</v>
       </c>
     </row>
   </sheetData>
